--- a/order_template/上海迪赢生物引物合成订购表.xlsx
+++ b/order_template/上海迪赢生物引物合成订购表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\TopGenProject\codes\172.16.10.9\PrimerDesign\order_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\TopGenProject\codes\172.16.10.9\prime-design\order_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFC12CF-4903-46B1-8602-20971D91E397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858B92E6-256A-4598-96FF-744161F8F644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="修饰种类" sheetId="3" r:id="rId3"/>
     <sheet name="交付周期" sheetId="4" r:id="rId4"/>
     <sheet name="纯化方式" sheetId="5" r:id="rId5"/>
-    <sheet name="实验用引物对（不需要订购合成）" sheetId="7" r:id="rId6"/>
+    <sheet name="实验用引物对（不需要订购合成）" sheetId="8" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="301">
   <si>
     <r>
       <rPr>
@@ -1580,111 +1580,6 @@
 7.若有非表格内的特殊修饰需求或其他额外需求的须在下单前进行咨询。</t>
     </r>
     <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>sampleSn</t>
-  </si>
-  <si>
-    <t>chrom</t>
-  </si>
-  <si>
-    <t>pos</t>
-  </si>
-  <si>
-    <t>ref</t>
-  </si>
-  <si>
-    <t>alt</t>
-  </si>
-  <si>
-    <t>gene</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>vaf</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>depth</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>primerID</t>
-  </si>
-  <si>
-    <t>Selected</t>
-  </si>
-  <si>
-    <t>failed_reason</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>TemplateID</t>
-  </si>
-  <si>
-    <t>ForwardPrimer(Fp)</t>
-  </si>
-  <si>
-    <t>ReversePrimer(Rp)</t>
-  </si>
-  <si>
-    <t>FpTm</t>
-  </si>
-  <si>
-    <t>RpTm</t>
-  </si>
-  <si>
-    <t>FpSize</t>
-  </si>
-  <si>
-    <t>RpSize</t>
-  </si>
-  <si>
-    <t>FpGC(%)</t>
-  </si>
-  <si>
-    <t>RpGC(%)</t>
-  </si>
-  <si>
-    <t>FpPos</t>
-  </si>
-  <si>
-    <t>RpPos</t>
-  </si>
-  <si>
-    <t>AmpSize(bp)</t>
-  </si>
-  <si>
-    <t>GnlAmpSize (bp)</t>
-  </si>
-  <si>
-    <t>AmpGC</t>
-  </si>
-  <si>
-    <t>AmpPos</t>
-  </si>
-  <si>
-    <t>Penalty</t>
-  </si>
-  <si>
-    <t>Chr</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>cHGVS</t>
-  </si>
-  <si>
-    <t>pHGVS</t>
-  </si>
-  <si>
-    <t>Note</t>
   </si>
   <si>
     <t>林靓宇</t>
@@ -2280,7 +2175,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -2414,9 +2309,6 @@
     <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2439,11 +2331,16 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2452,72 +2349,64 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="28" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3076,20 +2965,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:23" ht="27.95" customHeight="1">
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
       <c r="R1" s="24" t="s">
         <v>88</v>
       </c>
@@ -3113,18 +3002,18 @@
       <c r="D2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
       <c r="R2" s="26" t="s">
         <v>254</v>
       </c>
@@ -3185,13 +3074,13 @@
       <c r="D4" s="40" t="s">
         <v>291</v>
       </c>
-      <c r="E4" s="72">
+      <c r="E4" s="56">
         <f ca="1">NOW()</f>
-        <v>45118.749635532404</v>
-      </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
+        <v>45295.710426157406</v>
+      </c>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="13"/>
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
@@ -3223,12 +3112,12 @@
       <c r="D5" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="E5" s="73" t="s">
-        <v>330</v>
-      </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
+      <c r="E5" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
       <c r="I5" s="13"/>
       <c r="J5" s="53"/>
       <c r="K5" s="54"/>
@@ -3260,12 +3149,12 @@
       <c r="D6" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="E6" s="73" t="s">
-        <v>333</v>
-      </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
+      <c r="E6" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
       <c r="J6" s="53"/>
       <c r="K6" s="54"/>
       <c r="L6" s="54"/>
@@ -3296,12 +3185,12 @@
       <c r="D7" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="73" t="s">
-        <v>333</v>
-      </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
+      <c r="E7" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
       <c r="J7" s="53"/>
       <c r="K7" s="54"/>
       <c r="L7" s="54"/>
@@ -3332,12 +3221,12 @@
       <c r="D8" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="73" t="s">
-        <v>334</v>
-      </c>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
+      <c r="E8" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
       <c r="J8" s="53"/>
       <c r="K8" s="54"/>
       <c r="L8" s="54"/>
@@ -3368,12 +3257,12 @@
       <c r="D9" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="73">
+      <c r="E9" s="51">
         <v>18805827801</v>
       </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="14"/>
       <c r="J9" s="53"/>
       <c r="K9" s="54"/>
@@ -3405,12 +3294,12 @@
       <c r="D10" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="74" t="s">
-        <v>331</v>
-      </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
+      <c r="E10" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="15"/>
       <c r="J10" s="53"/>
       <c r="K10" s="54"/>
@@ -3442,12 +3331,12 @@
       <c r="D11" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="73" t="s">
-        <v>332</v>
-      </c>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
+      <c r="E11" s="51" t="s">
+        <v>298</v>
+      </c>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
       <c r="I11" s="15"/>
       <c r="J11" s="53"/>
       <c r="K11" s="54"/>
@@ -3479,10 +3368,10 @@
       <c r="D12" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="15"/>
       <c r="J12" s="53"/>
       <c r="K12" s="54"/>
@@ -3511,10 +3400,10 @@
       <c r="D13" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="15"/>
       <c r="J13" s="53"/>
       <c r="K13" s="54"/>
@@ -3546,10 +3435,10 @@
       <c r="D14" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
       <c r="I14" s="15"/>
       <c r="J14" s="53"/>
       <c r="K14" s="54"/>
@@ -3638,21 +3527,21 @@
     </row>
     <row r="16" spans="4:23">
       <c r="D16" s="21"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="44">
+      <c r="E16" s="43"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="43">
         <f t="shared" ref="G16:G55" si="0">N16*O16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="46">
+      <c r="H16" s="44"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="45">
         <f t="shared" ref="P16:P40" si="1">LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F16,"*",""),"/Me-dC/","C"),"+",""))</f>
         <v>0</v>
       </c>
@@ -3677,21 +3566,21 @@
     </row>
     <row r="17" spans="4:23">
       <c r="D17" s="21"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="44">
+      <c r="E17" s="43"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="45"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="46">
+      <c r="H17" s="44"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3716,21 +3605,21 @@
     </row>
     <row r="18" spans="4:23">
       <c r="D18" s="21"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="44">
+      <c r="E18" s="43"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="45"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="46">
+      <c r="H18" s="44"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3755,21 +3644,21 @@
     </row>
     <row r="19" spans="4:23">
       <c r="D19" s="21"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="44">
+      <c r="E19" s="43"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="46">
+      <c r="H19" s="44"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3794,21 +3683,21 @@
     </row>
     <row r="20" spans="4:23">
       <c r="D20" s="21"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="44">
+      <c r="E20" s="43"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="46">
+      <c r="H20" s="44"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3833,21 +3722,21 @@
     </row>
     <row r="21" spans="4:23">
       <c r="D21" s="21"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="44">
+      <c r="E21" s="43"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="45"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="46">
+      <c r="H21" s="44"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3872,21 +3761,21 @@
     </row>
     <row r="22" spans="4:23">
       <c r="D22" s="21"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="44">
+      <c r="E22" s="43"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="45"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="46">
+      <c r="H22" s="44"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3911,21 +3800,21 @@
     </row>
     <row r="23" spans="4:23">
       <c r="D23" s="21"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="44">
+      <c r="E23" s="43"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="46">
+      <c r="H23" s="44"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3950,21 +3839,21 @@
     </row>
     <row r="24" spans="4:23">
       <c r="D24" s="21"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="44">
+      <c r="E24" s="43"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H24" s="45"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="46">
+      <c r="H24" s="44"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3989,21 +3878,21 @@
     </row>
     <row r="25" spans="4:23">
       <c r="D25" s="21"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="44">
+      <c r="E25" s="43"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="46">
+      <c r="H25" s="44"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4028,21 +3917,21 @@
     </row>
     <row r="26" spans="4:23">
       <c r="D26" s="21"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="44">
+      <c r="E26" s="43"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="46">
+      <c r="H26" s="44"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4067,21 +3956,21 @@
     </row>
     <row r="27" spans="4:23">
       <c r="D27" s="21"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="44">
+      <c r="E27" s="43"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H27" s="45"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="46">
+      <c r="H27" s="44"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4106,21 +3995,21 @@
     </row>
     <row r="28" spans="4:23">
       <c r="D28" s="21"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="44">
+      <c r="E28" s="43"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H28" s="45"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="46">
+      <c r="H28" s="44"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4145,21 +4034,21 @@
     </row>
     <row r="29" spans="4:23">
       <c r="D29" s="21"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="44">
+      <c r="E29" s="43"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H29" s="45"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="46">
+      <c r="H29" s="44"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4184,21 +4073,21 @@
     </row>
     <row r="30" spans="4:23">
       <c r="D30" s="21"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="44">
+      <c r="E30" s="43"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H30" s="45"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="46">
+      <c r="H30" s="44"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4223,21 +4112,21 @@
     </row>
     <row r="31" spans="4:23">
       <c r="D31" s="21"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="44">
+      <c r="E31" s="43"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H31" s="45"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="46">
+      <c r="H31" s="44"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4262,21 +4151,21 @@
     </row>
     <row r="32" spans="4:23">
       <c r="D32" s="21"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="44">
+      <c r="E32" s="43"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H32" s="45"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="46">
+      <c r="H32" s="44"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4301,21 +4190,21 @@
     </row>
     <row r="33" spans="4:23">
       <c r="D33" s="21"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="44">
+      <c r="E33" s="43"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H33" s="45"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="46">
+      <c r="H33" s="44"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4340,21 +4229,21 @@
     </row>
     <row r="34" spans="4:23">
       <c r="D34" s="21"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="44">
+      <c r="E34" s="43"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H34" s="45"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="46">
+      <c r="H34" s="44"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4376,21 +4265,21 @@
     </row>
     <row r="35" spans="4:23">
       <c r="D35" s="21"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="44">
+      <c r="E35" s="43"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H35" s="45"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="46">
+      <c r="H35" s="44"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4412,21 +4301,21 @@
     </row>
     <row r="36" spans="4:23">
       <c r="D36" s="21"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="44">
+      <c r="E36" s="43"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H36" s="45"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="46">
+      <c r="H36" s="44"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4448,21 +4337,21 @@
     </row>
     <row r="37" spans="4:23">
       <c r="D37" s="21"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="44">
+      <c r="E37" s="43"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H37" s="45"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="46">
+      <c r="H37" s="44"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4481,21 +4370,21 @@
     </row>
     <row r="38" spans="4:23">
       <c r="D38" s="21"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="44">
+      <c r="E38" s="43"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H38" s="45"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="46">
+      <c r="H38" s="44"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4514,21 +4403,21 @@
     </row>
     <row r="39" spans="4:23">
       <c r="D39" s="21"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="44">
+      <c r="E39" s="43"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H39" s="45"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="46">
+      <c r="H39" s="44"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4547,21 +4436,21 @@
     </row>
     <row r="40" spans="4:23">
       <c r="D40" s="21"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="44">
+      <c r="E40" s="43"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="45"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="46">
+      <c r="H40" s="44"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4580,21 +4469,21 @@
     </row>
     <row r="41" spans="4:23">
       <c r="D41" s="21"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="44">
+      <c r="E41" s="47"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
       <c r="T41" s="26" t="s">
         <v>194</v>
       </c>
@@ -4610,21 +4499,21 @@
     </row>
     <row r="42" spans="4:23">
       <c r="D42" s="21"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="44">
+      <c r="E42" s="47"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="48"/>
-      <c r="P42" s="48"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
       <c r="T42" s="26" t="s">
         <v>195</v>
       </c>
@@ -4640,21 +4529,21 @@
     </row>
     <row r="43" spans="4:23">
       <c r="D43" s="21"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="44">
+      <c r="E43" s="47"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="47"/>
       <c r="T43" s="26" t="s">
         <v>196</v>
       </c>
@@ -4670,21 +4559,21 @@
     </row>
     <row r="44" spans="4:23">
       <c r="D44" s="21"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="44">
+      <c r="E44" s="47"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
       <c r="T44" s="26" t="s">
         <v>197</v>
       </c>
@@ -4700,21 +4589,21 @@
     </row>
     <row r="45" spans="4:23">
       <c r="D45" s="21"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="44">
+      <c r="E45" s="47"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="48"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
       <c r="T45" s="26" t="s">
         <v>198</v>
       </c>
@@ -4730,21 +4619,21 @@
     </row>
     <row r="46" spans="4:23">
       <c r="D46" s="21"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="44">
+      <c r="E46" s="47"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="50"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="48"/>
-      <c r="P46" s="48"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
       <c r="T46" s="26" t="s">
         <v>199</v>
       </c>
@@ -4760,21 +4649,21 @@
     </row>
     <row r="47" spans="4:23">
       <c r="D47" s="21"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="44">
+      <c r="E47" s="47"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="50"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="48"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
       <c r="U47" s="27" t="s">
         <v>23</v>
       </c>
@@ -4784,21 +4673,21 @@
     </row>
     <row r="48" spans="4:23">
       <c r="D48" s="21"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="44">
+      <c r="E48" s="47"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="50"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="48"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
       <c r="U48" s="27" t="s">
         <v>21</v>
       </c>
@@ -4808,21 +4697,21 @@
     </row>
     <row r="49" spans="4:22">
       <c r="D49" s="21"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="44">
+      <c r="E49" s="47"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="48"/>
-      <c r="O49" s="48"/>
-      <c r="P49" s="48"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="47"/>
       <c r="U49" s="27" t="s">
         <v>22</v>
       </c>
@@ -4832,21 +4721,21 @@
     </row>
     <row r="50" spans="4:22">
       <c r="D50" s="21"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="44">
+      <c r="E50" s="47"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="48"/>
-      <c r="O50" s="48"/>
-      <c r="P50" s="48"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
       <c r="U50" s="27" t="s">
         <v>24</v>
       </c>
@@ -4856,21 +4745,21 @@
     </row>
     <row r="51" spans="4:22">
       <c r="D51" s="21"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="44">
+      <c r="E51" s="47"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="48"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="48"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="47"/>
       <c r="U51" s="27" t="s">
         <v>25</v>
       </c>
@@ -4880,21 +4769,21 @@
     </row>
     <row r="52" spans="4:22">
       <c r="D52" s="21"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="44">
+      <c r="E52" s="47"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="48"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="47"/>
       <c r="U52" s="27" t="s">
         <v>43</v>
       </c>
@@ -4904,21 +4793,21 @@
     </row>
     <row r="53" spans="4:22">
       <c r="D53" s="21"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="44">
+      <c r="E53" s="47"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="48"/>
-      <c r="M53" s="50"/>
-      <c r="N53" s="48"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="48"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="47"/>
       <c r="U53" s="27" t="s">
         <v>44</v>
       </c>
@@ -4928,21 +4817,21 @@
     </row>
     <row r="54" spans="4:22">
       <c r="D54" s="21"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="44">
+      <c r="E54" s="47"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="48"/>
-      <c r="M54" s="50"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="48"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="47"/>
       <c r="U54" s="27" t="s">
         <v>26</v>
       </c>
@@ -4952,21 +4841,21 @@
     </row>
     <row r="55" spans="4:22">
       <c r="D55" s="21"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="44">
+      <c r="E55" s="47"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="48"/>
-      <c r="M55" s="50"/>
-      <c r="N55" s="48"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="48"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="47"/>
+      <c r="O55" s="47"/>
+      <c r="P55" s="47"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -6391,7 +6280,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="37" t="s">
@@ -6405,7 +6294,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75">
-      <c r="A3" s="56"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="37" t="s">
         <v>12</v>
       </c>
@@ -6417,7 +6306,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="57" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="37" t="s">
@@ -6431,7 +6320,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75">
-      <c r="A5" s="56"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="37" t="s">
         <v>288</v>
       </c>
@@ -6443,7 +6332,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="57" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="37" t="s">
@@ -6457,7 +6346,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="56"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="37" t="s">
         <v>16</v>
       </c>
@@ -6469,12 +6358,12 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -6571,10 +6460,10 @@
       <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="60" t="s">
         <v>266</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="32" t="s">
         <v>267</v>
       </c>
@@ -6589,10 +6478,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="32" t="s">
         <v>269</v>
       </c>
@@ -6607,10 +6496,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="60" t="s">
         <v>270</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="32" t="s">
         <v>271</v>
       </c>
@@ -6625,10 +6514,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="32" t="s">
         <v>271</v>
       </c>
@@ -6643,10 +6532,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="72" t="s">
         <v>273</v>
       </c>
-      <c r="B10" s="61"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="32" t="s">
         <v>271</v>
       </c>
@@ -6657,10 +6546,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="B11" s="59"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="32" t="s">
         <v>271</v>
       </c>
@@ -6672,17 +6561,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6690,152 +6579,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4DC8A3-568C-485E-8AF2-56D8B82ACB84}">
-  <sheetPr>
-    <tabColor theme="5"/>
-  </sheetPr>
-  <dimension ref="A1:AH1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B60BD2E-B275-4C64-B6EC-26841DADBC31}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="17.25" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.125" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.75" style="51" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" style="51" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.25" style="51" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25" style="51" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.25" style="51" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="6.5" style="51" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.5" style="51" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.625" style="51" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="28.25" style="51" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5" style="51" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.5" style="51" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.375" style="51" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.25" style="51" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.625" style="51" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.5" style="51" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="10.5" style="51" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15" style="51" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.875" style="51" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="68.25" style="51" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="51"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" customFormat="1">
-      <c r="A1" s="43" t="s">
-        <v>296</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>298</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>300</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>302</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>303</v>
-      </c>
-      <c r="I1" s="43" t="s">
-        <v>304</v>
-      </c>
-      <c r="J1" s="43" t="s">
-        <v>305</v>
-      </c>
-      <c r="K1" s="43" t="s">
-        <v>306</v>
-      </c>
-      <c r="L1" s="43" t="s">
-        <v>307</v>
-      </c>
-      <c r="M1" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="N1" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="O1" s="43" t="s">
-        <v>310</v>
-      </c>
-      <c r="P1" s="43" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q1" s="43" t="s">
-        <v>312</v>
-      </c>
-      <c r="R1" s="43" t="s">
-        <v>313</v>
-      </c>
-      <c r="S1" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="T1" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="U1" s="43" t="s">
-        <v>316</v>
-      </c>
-      <c r="V1" s="43" t="s">
-        <v>317</v>
-      </c>
-      <c r="W1" s="43" t="s">
-        <v>318</v>
-      </c>
-      <c r="X1" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="Y1" s="43" t="s">
-        <v>320</v>
-      </c>
-      <c r="Z1" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="AA1" s="43" t="s">
-        <v>322</v>
-      </c>
-      <c r="AB1" s="43" t="s">
-        <v>323</v>
-      </c>
-      <c r="AC1" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD1" s="43" t="s">
-        <v>325</v>
-      </c>
-      <c r="AE1" s="43" t="s">
-        <v>326</v>
-      </c>
-      <c r="AF1" s="43" t="s">
-        <v>327</v>
-      </c>
-      <c r="AG1" s="43" t="s">
-        <v>328</v>
-      </c>
-      <c r="AH1" s="43" t="s">
-        <v>329</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6862,6 +6612,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="3" master="7137158443084824580">
+    <arrUserId title="Range1" rangeCreator="" othersAccessPermission="edit">
+      <userID accessPermission="edit">7137158443084824580</userID>
+    </arrUserId>
+  </rangeList>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="2" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0"/>
@@ -6875,24 +6638,7 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="3" master="7137158443084824580">
-    <arrUserId title="Range1" rangeCreator="" othersAccessPermission="edit">
-      <userID accessPermission="edit">7137158443084824580</userID>
-    </arrUserId>
-  </rangeList>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="2" master=""/>
-</allowEditUser>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="3"/>
@@ -6902,7 +6648,20 @@
 </pixelators>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -6911,17 +6670,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -6930,7 +6680,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
